--- a/apitest/mi_excel.xlsx
+++ b/apitest/mi_excel.xlsx
@@ -446,7 +446,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mateo</t>
+          <t>Mateos</t>
         </is>
       </c>
       <c r="B3" t="n">
